--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401053.14127239</v>
+        <v>2399165.559755987</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>226.1579426276226</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.15011005139367</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7.38861760762145</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>332.3986578799465</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26.32882004050051</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.3734398702027</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938797</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.0246247964038</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964032</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174.743063725877</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941252</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1081608405403</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>39.11561436815779</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>26.97444673954851</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.9591325848605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>63.47332463853143</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>118.2422920270584</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>42.41159191917728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>163.9563538534663</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>96.84207451769348</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.75848236015086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2950,22 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>144.0725266431568</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>111.8765232158117</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.3616783337377</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463091</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.063478780785</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2292.529237041865</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2292.529237041865</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2292.529237041865</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.063478780785</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1919.063478780785</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.9194859165262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>477.9194859165262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>477.9194859165262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>477.9194859165262</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0295384186159</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>331.0295384186159</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513464</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>235.7411127445959</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>80.53774953804174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>80.53774953804174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>983.0286321745432</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036447</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404653</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404653</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>192.3330639344399</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181188</v>
+        <v>192.3330639344399</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.1014931486233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768803</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>615.749957978863</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.749957978863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L18" t="n">
-        <v>638.3691419079765</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N18" t="n">
         <v>1736.599915964471</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>973.8210231111786</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>745.8314722131613</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>795.4496523104681</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C22" t="n">
-        <v>626.5134693825612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>476.3968299702254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>476.3968299702254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>329.5068824723151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>161.3315607921358</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5923,37 +5923,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352016</v>
+        <v>385.5899330013831</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.242231453998</v>
+        <v>385.5899330013831</v>
       </c>
       <c r="Y22" t="n">
-        <v>795.4496523104681</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>286.947030795749</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609666</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240061</v>
+        <v>843.9666117966293</v>
       </c>
       <c r="X25" t="n">
-        <v>468.5954956259887</v>
+        <v>615.977060898612</v>
       </c>
       <c r="Y25" t="n">
-        <v>468.5954956259887</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,13 +6215,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,7 +6230,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,16 +6239,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1908.095276920733</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7175987609741</v>
+        <v>195.0373687508853</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045608</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X28" t="n">
-        <v>731.0291971045608</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.7175987609741</v>
+        <v>195.0373687508853</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1564.731711769082</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N30" t="n">
-        <v>1894.594339433115</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.6866369260356</v>
+        <v>491.5575547094955</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794994</v>
+        <v>378.3822370629593</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485344</v>
+        <v>284.0264629319943</v>
       </c>
       <c r="E31" t="n">
-        <v>283.003316847512</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1478.414563633816</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1279.4909407093</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.83463595371</v>
+        <v>902.6804289818922</v>
       </c>
       <c r="X31" t="n">
-        <v>873.6059503370639</v>
+        <v>730.4517433652455</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5742364749045</v>
+        <v>617.4451542583646</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6780,22 +6780,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>1912.313820009359</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2432.614441745106</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.141587792751</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1321.461721072713</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7652,7 +7652,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O45" t="n">
-        <v>1841.189502980821</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045199</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>165.9802687929768</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L18" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>93.88676507992591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943622</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>134.49774535351</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>148.1350559470642</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470642</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.8749102765746</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>219.9778004203345</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P45" t="n">
-        <v>274.3657496970643</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.088916456060324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715665</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1386602580875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>158.8051956154455</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>259.2629056590288</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>74.56386575173048</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>85.44050372900438</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>100.3423613250364</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>124.8352291794506</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.59120720492291</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>70.40474658093436</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>163.8261709919439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>86.96156912686354</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>51.50487350772615</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.907985046680551e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="11">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049991</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327927</v>
@@ -26332,28 +26332,28 @@
         <v>547440.6836327926</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833786</v>
+        <v>569550.9922833784</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049977</v>
+        <v>574729.2389049979</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007456</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.73165600746</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020398</v>
+        <v>26081.354170204</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-246014.7670888761</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256688</v>
+        <v>343953.1121256684</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256686</v>
+        <v>343953.1121256684</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882736</v>
+        <v>-77720.8695747999</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280684</v>
+        <v>447439.1669020963</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020964</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280685</v>
+        <v>447439.1669020963</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280681</v>
+        <v>447439.1669020962</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.4068354752</v>
+        <v>271015.9477095031</v>
       </c>
       <c r="K6" t="n">
-        <v>402678.8242801062</v>
+        <v>402660.3305421717</v>
       </c>
       <c r="L6" t="n">
-        <v>436335.7073867785</v>
+        <v>436335.7073867784</v>
       </c>
       <c r="M6" t="n">
-        <v>311877.5989538082</v>
+        <v>311877.598953808</v>
       </c>
       <c r="N6" t="n">
-        <v>446678.6141876451</v>
+        <v>446678.6141876449</v>
       </c>
       <c r="O6" t="n">
-        <v>446678.6141876447</v>
+        <v>446678.6141876453</v>
       </c>
       <c r="P6" t="n">
-        <v>402516.0088847988</v>
+        <v>402516.008884799</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108366</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.06622488066674</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>62.02077879040148</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>374.5417524646404</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53.8392807761071</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>129.8420688012946</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.3604017932778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082698</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>17.64056718375406</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263395</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>499.1748421909896</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L18" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>404.3111421303921</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
@@ -36221,7 +36221,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382553</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>361.0509964599025</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>416.8614475946183</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>430.4987581881724</v>
+        <v>358.7956721244931</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321383</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>674.4750642637517</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.8879430616487</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,10 +37543,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37622,28 +37622,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>469.2355053763588</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P45" t="n">
-        <v>481.459164628589</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
